--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436564.4601235865</v>
+        <v>438504.5399933693</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592088</v>
+        <v>925407.2786592091</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17533693.5348838</v>
+        <v>17533693.53488379</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>35.06494864838162</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.43010407512111</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +740,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>123.5915470799686</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.2068414650726</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,70 +895,70 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="W5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.5891775064833</v>
       </c>
       <c r="X5" t="n">
         <v>274.2838073416025</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.701019860154446</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -1230,7 +1232,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>35.90507490100135</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.922317797921</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.07428171382941</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1376,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>173.8630887158465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.07867728478316</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -1497,10 +1499,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>168.2550708811853</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.07428171382941</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J13" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>236.5574327625856</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -1655,16 +1657,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>173.203811581284</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>107.3463022343464</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
         <v>198.3825319082687</v>
@@ -1746,7 +1748,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>145.8355658494302</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1856,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>237.216709897148</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>173.203811581284</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>87.41670906500678</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>109.8489596931843</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>58.51163626885503</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.4777635765444</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X20" t="n">
         <v>274.2838073416025</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>92.16478098594213</v>
+        <v>19.50020170544144</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
         <v>224.6571770672012</v>
@@ -2220,7 +2222,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>36.36486963835937</v>
+      </c>
+      <c r="G23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>17.76425168466131</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>247.3796281087825</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>274.2838073416025</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2640,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>42.9611995438235</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>224.6571770672012</v>
@@ -2694,10 +2696,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>109.9524937254427</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2804,61 +2806,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>205.224307868124</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>35.72422578294405</v>
-      </c>
-      <c r="S29" t="n">
-        <v>205.8649517235392</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>190.9446209095803</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,70 +3028,70 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S32" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T32" t="n">
+        <v>168.1572104236697</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G32" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>174.4097407145713</v>
+        <v>192.2977688674054</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3268,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>99.73835480560632</v>
       </c>
       <c r="D35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>163.8766752593069</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659565</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>99.73835480560622</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.5891775064832</v>
       </c>
       <c r="F38" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>11.52722450913684</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3645,10 +3647,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>153.4237150659563</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.57657371040602</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,61 +3751,61 @@
         <v>274.2838073416025</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.5891775064833</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>274.2838073416025</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>153.4237150659563</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>13.05588457000249</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3940,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>29.907560127089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.07907767104379</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>61.92801697941907</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>154.2141932558485</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4352,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1055.28663939154</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>1055.28663939154</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>830.0693492941459</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U2" t="n">
-        <v>576.0514062875353</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V2" t="n">
-        <v>298.9970554374318</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W2" t="n">
-        <v>21.9427045873282</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="X2" t="n">
-        <v>21.9427045873282</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.9427045873282</v>
+        <v>58.02778113575653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>628.7127477603269</v>
+        <v>146.7826511327511</v>
       </c>
       <c r="C3" t="n">
-        <v>628.7127477603269</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>628.7127477603269</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>29.3360154338131</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>300.8769847019996</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N3" t="n">
-        <v>572.4179539701861</v>
+        <v>952.3442066237701</v>
       </c>
       <c r="O3" t="n">
-        <v>840.2975729475068</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
-        <v>1038.868042782504</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1001.483734658237</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T3" t="n">
-        <v>1001.483734658237</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U3" t="n">
-        <v>1001.483734658237</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V3" t="n">
-        <v>1001.483734658237</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W3" t="n">
-        <v>1001.483734658237</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="X3" t="n">
-        <v>1001.483734658237</v>
+        <v>519.5536380306611</v>
       </c>
       <c r="Y3" t="n">
-        <v>795.7552988818874</v>
+        <v>313.8252022543115</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4510,28 +4512,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4577,10 +4579,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4601,16 +4603,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W5" t="n">
-        <v>853.1057571376389</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X5" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>30.73161353697915</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>30.73161353697915</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>30.73161353697915</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>30.73161353697915</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>30.73161353697915</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>30.73161353697915</v>
       </c>
       <c r="H6" t="n">
         <v>21.9427045873282</v>
@@ -4656,10 +4658,10 @@
         <v>548.9545891439176</v>
       </c>
       <c r="N6" t="n">
-        <v>748.0774423727912</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O6" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
         <v>1015.957061350112</v>
@@ -4680,16 +4682,16 @@
         <v>403.5026004348891</v>
       </c>
       <c r="V6" t="n">
-        <v>169.25135696049</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="W6" t="n">
-        <v>21.9427045873282</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="X6" t="n">
-        <v>21.9427045873282</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>197.7741646585396</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>126.6025577647144</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
         <v>36.86635076695784</v>
@@ -4744,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E8" t="n">
-        <v>21.9427045873282</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9427045873282</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
         <v>1093.116282134284</v>
@@ -4826,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>930.0926782448495</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="C9" t="n">
-        <v>757.3395631666667</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="D9" t="n">
-        <v>609.7512565256106</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
-        <v>452.1417275284654</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
-        <v>307.1859375450822</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>169.7887555197869</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>58.21045701258208</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4911,22 +4913,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>913.375312398813</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>913.375312398813</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>913.375312398813</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.13522936641</v>
+        <v>660.8608207321463</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4953,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>111.6789115850847</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>111.6789115850847</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I10" t="n">
-        <v>111.6789115850847</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -5015,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E11" t="n">
-        <v>21.9427045873282</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F11" t="n">
-        <v>21.9427045873282</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I11" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J11" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5063,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S11" t="n">
-        <v>778.2322885414366</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T11" t="n">
-        <v>553.0149984440422</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U11" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>981.2022424513852</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="C12" t="n">
-        <v>808.4491273732024</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="D12" t="n">
         <v>660.8608207321463</v>
@@ -5133,10 +5135,10 @@
         <v>711.659913028337</v>
       </c>
       <c r="O12" t="n">
-        <v>979.5395320056577</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P12" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
@@ -5145,25 +5147,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S12" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T12" t="n">
-        <v>1001.483734658237</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="U12" t="n">
-        <v>1001.483734658237</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="V12" t="n">
-        <v>1001.483734658237</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="W12" t="n">
-        <v>1001.483734658237</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="X12" t="n">
-        <v>1001.483734658237</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="Y12" t="n">
-        <v>1001.483734658237</v>
+        <v>660.8608207321463</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5196,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="I13" t="n">
-        <v>111.6789115850847</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J13" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G14" t="n">
-        <v>506.9602726118625</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H14" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I14" t="n">
         <v>22.60864108688619</v>
@@ -5279,19 +5281,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5303,25 +5305,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>745.907174392252</v>
+        <v>778.8982250409946</v>
       </c>
       <c r="T14" t="n">
-        <v>745.907174392252</v>
+        <v>553.6809349436003</v>
       </c>
       <c r="U14" t="n">
-        <v>745.907174392252</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="V14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="W14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="X14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="Y14" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C15" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D15" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E15" t="n">
         <v>21.9427045873282</v>
@@ -5364,13 +5366,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M15" t="n">
-        <v>416.655578933882</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N15" t="n">
-        <v>549.5069725377944</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O15" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P15" t="n">
         <v>1015.957061350112</v>
@@ -5379,28 +5381,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S15" t="n">
-        <v>988.7046210488883</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T15" t="n">
-        <v>788.3182251819502</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U15" t="n">
-        <v>561.3917836999287</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V15" t="n">
-        <v>327.1405402255297</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W15" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X15" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y15" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I16" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5455,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G17" t="n">
-        <v>506.2943361123045</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H17" t="n">
-        <v>229.2399852622009</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I17" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
@@ -5519,16 +5521,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
         <v>1093.116282134284</v>
@@ -5540,25 +5542,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>745.907174392252</v>
+        <v>778.8982250409946</v>
       </c>
       <c r="T17" t="n">
-        <v>745.907174392252</v>
+        <v>553.6809349436003</v>
       </c>
       <c r="U17" t="n">
-        <v>745.907174392252</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="V17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="W17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="X17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="Y17" t="n">
-        <v>745.907174392252</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="C18" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D18" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E18" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F18" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G18" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H18" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
@@ -5601,13 +5603,13 @@
         <v>277.4136198757311</v>
       </c>
       <c r="M18" t="n">
-        <v>548.9545891439176</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N18" t="n">
-        <v>748.0774423727912</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P18" t="n">
         <v>1015.957061350112</v>
@@ -5616,28 +5618,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1001.483734658237</v>
+        <v>1008.83552324014</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838487</v>
+        <v>1008.83552324014</v>
       </c>
       <c r="T18" t="n">
-        <v>630.4290419169106</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="U18" t="n">
-        <v>403.5026004348891</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="V18" t="n">
-        <v>169.25135696049</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="W18" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="X18" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
     </row>
     <row r="19">
@@ -5704,10 +5706,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
         <v>21.9427045873282</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.9012497319588</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="C20" t="n">
-        <v>132.9012497319588</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9427045873282</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="E20" t="n">
-        <v>21.9427045873282</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9427045873282</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9427045873282</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J20" t="n">
         <v>21.9427045873282</v>
@@ -5759,13 +5761,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P20" t="n">
         <v>1093.116282134284</v>
@@ -5777,25 +5779,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>663.9735435886729</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>409.9556005820623</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V20" t="n">
-        <v>409.9556005820623</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W20" t="n">
-        <v>409.9556005820623</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="X20" t="n">
-        <v>132.9012497319588</v>
+        <v>289.0085846595923</v>
       </c>
       <c r="Y20" t="n">
-        <v>132.9012497319588</v>
+        <v>289.0085846595923</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.695819665511</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="C21" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="D21" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5829,22 +5831,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L21" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M21" t="n">
-        <v>416.655578933882</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5853,28 +5855,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>908.3879962885984</v>
+        <v>1077.43805592657</v>
       </c>
       <c r="T21" t="n">
-        <v>908.3879962885984</v>
+        <v>877.0516600596321</v>
       </c>
       <c r="U21" t="n">
-        <v>681.4615548065769</v>
+        <v>650.1252185776107</v>
       </c>
       <c r="V21" t="n">
-        <v>447.2103113321778</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="W21" t="n">
-        <v>194.695819665511</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="X21" t="n">
-        <v>194.695819665511</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.695819665511</v>
+        <v>415.8739751032115</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L22" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M22" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N22" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O22" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C23" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>783.348686962408</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="H23" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I23" t="n">
         <v>21.9427045873282</v>
@@ -5996,13 +5998,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P23" t="n">
         <v>1093.116282134284</v>
@@ -6023,16 +6025,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>517.8373438740774</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="C24" t="n">
-        <v>345.0842287958946</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D24" t="n">
-        <v>197.4959221548385</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E24" t="n">
-        <v>39.88639315769316</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
         <v>21.9427045873282</v>
@@ -6066,25 +6068,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K24" t="n">
-        <v>38.09606741079833</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L24" t="n">
-        <v>286.1736718527163</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M24" t="n">
-        <v>557.7146411209028</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N24" t="n">
-        <v>829.2556103890893</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O24" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
@@ -6099,19 +6101,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V24" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W24" t="n">
-        <v>1097.13522936641</v>
+        <v>386.079132178896</v>
       </c>
       <c r="X24" t="n">
-        <v>890.6083307719874</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="Y24" t="n">
-        <v>684.8798949956379</v>
+        <v>179.5522335844735</v>
       </c>
     </row>
     <row r="25">
@@ -6181,7 +6183,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W25" t="n">
         <v>21.9427045873282</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.9970554374318</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C26" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D26" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E26" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F26" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G26" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J26" t="n">
         <v>21.9427045873282</v>
@@ -6257,19 +6259,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U26" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V26" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W26" t="n">
-        <v>298.9970554374318</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="X26" t="n">
-        <v>298.9970554374318</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.9970554374318</v>
+        <v>853.7716936371969</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>324.5080235678566</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="C27" t="n">
-        <v>324.5080235678566</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="D27" t="n">
-        <v>324.5080235678566</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="E27" t="n">
-        <v>166.8984945707113</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="F27" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="G27" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H27" t="n">
         <v>21.9427045873282</v>
@@ -6315,10 +6317,10 @@
         <v>548.9545891439176</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6851405540922</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O27" t="n">
-        <v>898.564759531413</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6333,22 +6335,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>669.8223920174504</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V27" t="n">
-        <v>435.5711485430513</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W27" t="n">
-        <v>324.5080235678566</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X27" t="n">
-        <v>324.5080235678566</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y27" t="n">
-        <v>324.5080235678566</v>
+        <v>176.9161541489002</v>
       </c>
     </row>
     <row r="28">
@@ -6409,13 +6411,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
         <v>21.9427045873282</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>576.0514062875353</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="C29" t="n">
-        <v>576.0514062875353</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="D29" t="n">
-        <v>576.0514062875353</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="E29" t="n">
-        <v>576.0514062875353</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="F29" t="n">
-        <v>576.0514062875353</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="G29" t="n">
-        <v>298.9970554374318</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H29" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
@@ -6476,7 +6478,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6485,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1061.050152817982</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S29" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T29" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U29" t="n">
-        <v>853.1057571376389</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V29" t="n">
-        <v>853.1057571376389</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="W29" t="n">
-        <v>853.1057571376389</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="X29" t="n">
-        <v>853.1057571376389</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="Y29" t="n">
-        <v>576.0514062875353</v>
+        <v>229.9059217617589</v>
       </c>
     </row>
     <row r="30">
@@ -6543,46 +6545,46 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>38.09606741079833</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>286.1736718527163</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>557.7146411209028</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N30" t="n">
-        <v>829.2556103890893</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O30" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="T30" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U30" t="n">
-        <v>870.2087878843885</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V30" t="n">
-        <v>635.9575444099894</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W30" t="n">
-        <v>383.4430527433227</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X30" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y30" t="n">
         <v>21.9427045873282</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C32" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D32" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E32" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F32" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G32" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732831</v>
       </c>
       <c r="I32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732831</v>
       </c>
       <c r="J32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732831</v>
       </c>
       <c r="K32" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494322</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007957</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P32" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q32" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>745.9071743922523</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="W32" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X32" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y32" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>732.2267619188851</v>
       </c>
       <c r="C33" t="n">
-        <v>21.9427045873282</v>
+        <v>559.4736468407023</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>411.8853401996462</v>
       </c>
       <c r="E33" t="n">
-        <v>21.9427045873282</v>
+        <v>254.2758112025009</v>
       </c>
       <c r="F33" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G33" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H33" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
@@ -6786,10 +6788,10 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M33" t="n">
-        <v>541.5612782974326</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N33" t="n">
-        <v>748.0774423727912</v>
+        <v>748.0774423727914</v>
       </c>
       <c r="O33" t="n">
         <v>1015.957061350112</v>
@@ -6804,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920219</v>
       </c>
       <c r="T33" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920219</v>
       </c>
       <c r="U33" t="n">
-        <v>920.9637740991661</v>
+        <v>732.2267619188851</v>
       </c>
       <c r="V33" t="n">
-        <v>686.7125306247669</v>
+        <v>732.2267619188851</v>
       </c>
       <c r="W33" t="n">
-        <v>434.1980389581003</v>
+        <v>732.2267619188851</v>
       </c>
       <c r="X33" t="n">
-        <v>227.6711403636777</v>
+        <v>732.2267619188851</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.9427045873282</v>
+        <v>732.2267619188851</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E34" t="n">
-        <v>169.5780797487469</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L34" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M34" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N34" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O34" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.9721768160992</v>
+        <v>122.6885175222841</v>
       </c>
       <c r="C35" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D35" t="n">
         <v>21.9427045873282</v>
@@ -6938,49 +6940,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K35" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P35" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q35" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="X35" t="n">
-        <v>820.0808785163064</v>
+        <v>676.7972192224913</v>
       </c>
       <c r="Y35" t="n">
-        <v>543.0265276662028</v>
+        <v>399.7428683723877</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.3053486626563</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D36" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E36" t="n">
         <v>21.9427045873282</v>
@@ -7014,22 +7016,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N36" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O36" t="n">
-        <v>1088.375177389425</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P36" t="n">
         <v>1097.13522936641</v>
@@ -7047,19 +7049,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843887</v>
       </c>
       <c r="V36" t="n">
-        <v>931.6032341549889</v>
+        <v>635.9575444099896</v>
       </c>
       <c r="W36" t="n">
-        <v>931.6032341549889</v>
+        <v>383.4430527433229</v>
       </c>
       <c r="X36" t="n">
-        <v>725.0763355605663</v>
+        <v>176.9161541489004</v>
       </c>
       <c r="Y36" t="n">
-        <v>519.3478997842168</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>399.7428683723875</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C38" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="D38" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="E38" t="n">
-        <v>298.9970554374318</v>
+        <v>576.0514062875355</v>
       </c>
       <c r="F38" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374319</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732831</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732831</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732831</v>
       </c>
       <c r="J38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732831</v>
       </c>
       <c r="K38" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494322</v>
       </c>
       <c r="L38" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007957</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X38" t="n">
-        <v>676.7972192224911</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y38" t="n">
-        <v>399.7428683723875</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.9427045873282</v>
+        <v>33.58636570766845</v>
       </c>
       <c r="C39" t="n">
         <v>21.9427045873282</v>
@@ -7260,10 +7262,10 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>541.5612782974326</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N39" t="n">
-        <v>813.1022475656191</v>
+        <v>813.1022475656193</v>
       </c>
       <c r="O39" t="n">
         <v>1080.98186654294</v>
@@ -7278,25 +7280,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920219</v>
       </c>
       <c r="T39" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="U39" t="n">
-        <v>870.2087878843885</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="V39" t="n">
-        <v>635.9575444099894</v>
+        <v>491.8292931506847</v>
       </c>
       <c r="W39" t="n">
-        <v>383.4430527433227</v>
+        <v>239.314801484018</v>
       </c>
       <c r="X39" t="n">
-        <v>176.9161541489002</v>
+        <v>239.314801484018</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.9427045873282</v>
+        <v>33.58636570766845</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
         <v>21.9427045873282</v>
@@ -7336,7 +7338,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M40" t="n">
         <v>108.7246574309869</v>
@@ -7372,10 +7374,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C41" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D41" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E41" t="n">
-        <v>265.9721768160992</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="F41" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J41" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K41" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P41" t="n">
         <v>1093.116282134284</v>
@@ -7451,10 +7453,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X41" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y41" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.9427045873282</v>
+        <v>746.2366191785395</v>
       </c>
       <c r="C42" t="n">
-        <v>21.9427045873282</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="D42" t="n">
-        <v>21.9427045873282</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E42" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F42" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G42" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H42" t="n">
         <v>21.9427045873282</v>
@@ -7488,22 +7490,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L42" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M42" t="n">
-        <v>557.7146411209028</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N42" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
         <v>1097.13522936641</v>
@@ -7515,25 +7517,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>942.1617798048379</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T42" t="n">
-        <v>942.1617798048379</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U42" t="n">
-        <v>715.2353383228165</v>
+        <v>913.2791703001</v>
       </c>
       <c r="V42" t="n">
-        <v>480.9840948484174</v>
+        <v>913.2791703001</v>
       </c>
       <c r="W42" t="n">
-        <v>228.4696031817507</v>
+        <v>913.2791703001</v>
       </c>
       <c r="X42" t="n">
-        <v>21.9427045873282</v>
+        <v>913.2791703001</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.9427045873282</v>
+        <v>913.2791703001</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="C43" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="D43" t="n">
         <v>21.9427045873282</v>
@@ -7588,31 +7590,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="W43" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="X43" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>265.9721768160992</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="C44" t="n">
-        <v>265.9721768160992</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="D44" t="n">
-        <v>265.9721768160992</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="E44" t="n">
-        <v>265.9721768160992</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="F44" t="n">
-        <v>265.9721768160992</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="G44" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="H44" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="I44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
@@ -7670,28 +7672,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W44" t="n">
-        <v>820.0808785163064</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X44" t="n">
-        <v>820.0808785163064</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y44" t="n">
-        <v>543.0265276662028</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.9427045873282</v>
+        <v>759.4243813704612</v>
       </c>
       <c r="C45" t="n">
-        <v>21.9427045873282</v>
+        <v>696.8708288659975</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9427045873282</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9427045873282</v>
+        <v>391.6729932277962</v>
       </c>
       <c r="F45" t="n">
-        <v>21.9427045873282</v>
+        <v>246.717203244413</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H45" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
@@ -7728,19 +7730,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L45" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
-        <v>680.8032373555836</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N45" t="n">
-        <v>680.8032373555836</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O45" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7752,25 +7754,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T45" t="n">
-        <v>941.363316986765</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U45" t="n">
-        <v>714.4368755047435</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V45" t="n">
-        <v>480.1856320303444</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="W45" t="n">
-        <v>227.6711403636777</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="X45" t="n">
-        <v>227.6711403636777</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.9427045873282</v>
+        <v>926.4669324920217</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7836,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
         <v>21.9427045873282</v>
@@ -8055,13 +8057,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
         <v>412.8644904155703</v>
@@ -8070,13 +8072,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>203.2867471478201</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.3379737580186</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8225,7 +8227,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
         <v>396.0321885132552</v>
@@ -8304,13 +8306,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>329.1923644619304</v>
+        <v>399.2016060198332</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
         <v>218.4803792452831</v>
@@ -8453,7 +8455,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
         <v>434.3676631324684</v>
@@ -8471,7 +8473,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8690,7 +8692,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
         <v>434.3676631324684</v>
@@ -8708,7 +8710,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8781,13 +8783,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>327.8241125788646</v>
       </c>
       <c r="P12" t="n">
-        <v>167.4104304051884</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8927,7 +8929,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -8945,7 +8947,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9012,16 +9014,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>199.0664347615666</v>
       </c>
       <c r="N15" t="n">
-        <v>262.2514961538888</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9167,7 +9169,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
         <v>467.4940748325458</v>
@@ -9249,16 +9251,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>412.8644904155703</v>
+        <v>139.1386460980858</v>
       </c>
       <c r="N18" t="n">
-        <v>329.1923644619304</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9477,25 +9479,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
-        <v>344.2496456653007</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9714,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>150.7119311045153</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,7 +9728,7 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>402.3419766228525</v>
+        <v>329.1923644619304</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9737,7 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9963,13 +9965,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>210.6142818167799</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10124,13 +10126,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O29" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10191,25 +10193,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10434,10 +10436,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N33" t="n">
-        <v>336.6603552159556</v>
+        <v>336.6603552159557</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10586,7 +10588,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740115</v>
       </c>
       <c r="L35" t="n">
         <v>434.3676631324684</v>
@@ -10662,25 +10664,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>402.3419766228525</v>
+        <v>351.717636419326</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
         <v>136.482229733871</v>
@@ -10908,7 +10910,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N39" t="n">
         <v>402.3419766228525</v>
@@ -11060,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11136,25 +11138,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>136.482229733871</v>
@@ -11376,7 +11378,7 @@
         <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11385,13 +11387,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O45" t="n">
-        <v>358.992471844272</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>348.6514613430134</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -22568,7 +22570,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100.420718625756</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22628,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>47.43403684743234</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>31.8265922421012</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
@@ -22689,7 +22691,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22841,10 +22843,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W5" t="n">
-        <v>108.9409394940712</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
         <v>96.5777917895669</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22878,7 +22880,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>101.7614956619783</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -22920,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>104.1537809005699</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22957,13 +22959,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>86.33420001292077</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>89.01313062185548</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23027,22 +23029,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>347.4124432514906</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>50.59846856447032</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23151,7 +23153,7 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>16.46021411034769</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -23160,7 +23162,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -23191,19 +23193,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>77.81530721627865</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23264,22 +23266,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>347.4124432514906</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>32.00186300769272</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.2934483255617</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23385,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>30.12746102708334</v>
       </c>
       <c r="U12" t="n">
         <v>224.6571770672012</v>
@@ -23434,13 +23436,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>63.68426508357422</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>178.2973326412453</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.66114014225519</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23577,10 +23579,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.61531167129795</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>104.1537809005699</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23671,13 +23673,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
-        <v>123.2049801956623</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T16" t="n">
         <v>228.3324659915077</v>
@@ -23744,16 +23746,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>177.6380555066829</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H17" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>32.66114014225519</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23814,22 +23816,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.278270696084434</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>104.1537809005699</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23944,13 +23946,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23972,7 +23974,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>246.7557730614141</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -23984,13 +23986,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>279.6322671192984</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24031,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X20" t="n">
         <v>96.5777917895669</v>
@@ -24048,7 +24050,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24057,13 +24059,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>76.79683291970225</v>
+        <v>149.4614122002029</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -24184,10 +24186,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>74.02322442533077</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24206,25 +24208,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>370.9289938421815</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0.6592771345624158</v>
@@ -24263,13 +24265,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>125.741980398888</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>136.0232102050423</v>
@@ -24339,19 +24341,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>2.609718641217569</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -24421,10 +24423,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -24458,13 +24460,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,13 +24499,13 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>76.2463096589521</v>
+        <v>109.6002166286337</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -24528,16 +24530,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>93.06201066121881</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>86.50354346547167</v>
@@ -24573,7 +24575,7 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>140.0368530245574</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -24649,7 +24651,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24658,7 +24660,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24692,16 +24694,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H29" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>106.126596917933</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>159.5854960909743</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>110.2328786007794</v>
       </c>
       <c r="T30" t="n">
         <v>198.3825319082687</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.24743635262973</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -24850,10 +24852,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974165</v>
       </c>
       <c r="I31" t="n">
         <v>153.7585467974036</v>
@@ -24892,7 +24894,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E32" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
         <v>338.1439033881534</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>54.8079067727507</v>
       </c>
       <c r="U32" t="n">
         <v>251.4777635765444</v>
@@ -24977,7 +24979,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>76.24630965895204</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -24996,16 +24998,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
@@ -25014,7 +25016,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>50.24743635262988</v>
+        <v>32.35940819979584</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -25081,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>114.2205189413953</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.8895889301081</v>
@@ -25141,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615983</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>267.2467408733363</v>
       </c>
       <c r="D35" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -25217,7 +25219,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>96.5777917895669</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y35" t="n">
         <v>112.4032644096333</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -25287,19 +25289,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>68.03205578034826</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>50.24743635262951</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25362,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
         <v>228.3324659915077</v>
@@ -25378,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615983</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25393,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>267.2467408733364</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488042</v>
       </c>
       <c r="F38" t="n">
-        <v>133.0100561389384</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
         <v>338.1439033881534</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
         <v>205.8649517235392</v>
@@ -25454,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>159.4983594182642</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -25518,13 +25520,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>50.24743635262973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>137.4289928041133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25612,7 +25614,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25637,7 +25639,7 @@
         <v>108.834228413685</v>
       </c>
       <c r="F41" t="n">
-        <v>165.7046859740575</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
@@ -25691,7 +25693,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>129.272421624686</v>
       </c>
       <c r="Y41" t="n">
         <v>112.4032644096333</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>86.50354346547167</v>
@@ -25755,22 +25757,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>15.5378988396881</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>211.6012924971987</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -25789,7 +25791,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2049801956623</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>256.1447102639752</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25874,19 +25876,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
-        <v>173.2655878973476</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>106.1452301970802</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
@@ -25925,7 +25927,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>109.0975669479819</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>44.16833865242018</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26074,10 +26076,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>511076.8080956348</v>
+        <v>511076.8080956349</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>511076.8080956346</v>
+        <v>511076.8080956347</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>511076.8080956348</v>
+        <v>511076.8080956346</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>511076.8080956348</v>
+        <v>511076.8080956346</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>511076.8080956346</v>
+        <v>511076.8080956347</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>511076.8080956347</v>
+        <v>511076.8080956348</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>511076.8080956347</v>
+        <v>511076.8080956348</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>511076.8080956347</v>
+        <v>511076.8080956346</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511076.8080956348</v>
+        <v>511076.8080956347</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511076.8080956348</v>
+        <v>511076.8080956346</v>
       </c>
     </row>
   </sheetData>
@@ -26320,31 +26322,31 @@
         <v>121223.9866896454</v>
       </c>
       <c r="E2" t="n">
+        <v>121223.9866896454</v>
+      </c>
+      <c r="F2" t="n">
         <v>121223.9866896455</v>
-      </c>
-      <c r="F2" t="n">
-        <v>121223.9866896454</v>
       </c>
       <c r="G2" t="n">
         <v>121223.9866896454</v>
       </c>
       <c r="H2" t="n">
-        <v>121223.9866896455</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="I2" t="n">
-        <v>121223.9866896455</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="J2" t="n">
         <v>121223.9866896454</v>
       </c>
       <c r="K2" t="n">
-        <v>121223.9866896454</v>
+        <v>121223.9866896455</v>
       </c>
       <c r="L2" t="n">
         <v>121223.9866896455</v>
       </c>
       <c r="M2" t="n">
-        <v>121223.9866896454</v>
+        <v>121223.9866896455</v>
       </c>
       <c r="N2" t="n">
         <v>121223.9866896455</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26448,13 +26450,13 @@
         <v>26386.18069453981</v>
       </c>
       <c r="M4" t="n">
-        <v>26386.18069453981</v>
+        <v>26386.18069453982</v>
       </c>
       <c r="N4" t="n">
         <v>26386.18069453981</v>
       </c>
       <c r="O4" t="n">
-        <v>26386.18069453981</v>
+        <v>26386.18069453982</v>
       </c>
       <c r="P4" t="n">
         <v>26386.18069453981</v>
@@ -26522,28 +26524,28 @@
         <v>-47385.06185900365</v>
       </c>
       <c r="C6" t="n">
-        <v>44533.75050873618</v>
+        <v>44533.75050873622</v>
       </c>
       <c r="D6" t="n">
         <v>44533.75050873621</v>
       </c>
       <c r="E6" t="n">
+        <v>78161.35050873618</v>
+      </c>
+      <c r="F6" t="n">
         <v>78161.35050873621</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>78161.35050873621</v>
+      </c>
+      <c r="H6" t="n">
+        <v>78161.35050873621</v>
+      </c>
+      <c r="I6" t="n">
         <v>78161.35050873618</v>
       </c>
-      <c r="G6" t="n">
-        <v>78161.35050873616</v>
-      </c>
-      <c r="H6" t="n">
-        <v>78161.35050873624</v>
-      </c>
-      <c r="I6" t="n">
-        <v>78161.35050873621</v>
-      </c>
       <c r="J6" t="n">
-        <v>6396.638020649942</v>
+        <v>6396.638020649953</v>
       </c>
       <c r="K6" t="n">
         <v>78161.35050873621</v>
@@ -26552,10 +26554,10 @@
         <v>78161.35050873621</v>
       </c>
       <c r="M6" t="n">
-        <v>78161.35050873618</v>
+        <v>78161.35050873623</v>
       </c>
       <c r="N6" t="n">
-        <v>78161.35050873624</v>
+        <v>78161.35050873621</v>
       </c>
       <c r="O6" t="n">
         <v>78161.35050873621</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
@@ -34790,13 +34792,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>64.25540881448674</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.85574402414757</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>201.1341951806804</v>
+        <v>271.1434367385833</v>
       </c>
       <c r="O6" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
         <v>81.99814951141209</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
         <v>204.4954085367308</v>
@@ -35191,7 +35193,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
         <v>204.4954085367308</v>
@@ -35428,7 +35430,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O12" t="n">
-        <v>270.5854737144654</v>
+        <v>188.7927742455313</v>
       </c>
       <c r="P12" t="n">
-        <v>36.7853831762164</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L14" t="n">
         <v>204.4954085367308</v>
@@ -35665,7 +35667,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>60.48575168759873</v>
       </c>
       <c r="N15" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>81.99814951141209</v>
@@ -35887,7 +35889,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L17" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M17" t="n">
         <v>242.9064974359549</v>
@@ -35969,16 +35971,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
+        <v>0.5579630241179461</v>
+      </c>
+      <c r="N18" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N18" t="n">
-        <v>201.1341951806804</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
         <v>81.99814951141209</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
-        <v>16.31652810451528</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
@@ -36446,7 +36448,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2838073416025</v>
+        <v>201.1341951806804</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>82.55611253552989</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O29" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P29" t="n">
         <v>109.2184856369541</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>208.6021859347056</v>
+        <v>208.6021859347057</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051554</v>
       </c>
       <c r="L35" t="n">
         <v>204.4954085367308</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2838073416025</v>
+        <v>223.659467138076</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L41" t="n">
         <v>204.4954085367308</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>250.5834388302202</v>
@@ -38105,13 +38107,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O45" t="n">
-        <v>219.9611335109387</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
